--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1727,28 +1727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.37172301047218</v>
+        <v>126.8731839969346</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.6505783419138</v>
+        <v>173.5934875943739</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.8495406896707</v>
+        <v>157.0259687784053</v>
       </c>
       <c r="AD2" t="n">
-        <v>90371.72301047218</v>
+        <v>126873.1839969346</v>
       </c>
       <c r="AE2" t="n">
-        <v>123650.5783419138</v>
+        <v>173593.4875943739</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.049404682013945e-06</v>
+        <v>5.642197039872296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.98046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>111849.5406896707</v>
+        <v>157025.9687784053</v>
       </c>
     </row>
     <row r="3">
@@ -1833,28 +1833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.52627737570828</v>
+        <v>104.8322272570437</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.1796052740301</v>
+        <v>143.436078204486</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.6642183847521</v>
+        <v>129.7467402144888</v>
       </c>
       <c r="AD3" t="n">
-        <v>80526.27737570828</v>
+        <v>104832.2272570437</v>
       </c>
       <c r="AE3" t="n">
-        <v>110179.6052740301</v>
+        <v>143436.078204486</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.684853906719039e-06</v>
+        <v>6.817944475352831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.12109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>99664.21838475211</v>
+        <v>129746.7402144888</v>
       </c>
     </row>
     <row r="4">
@@ -1939,28 +1939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.18719631473263</v>
+        <v>104.4931461960681</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.7156596072028</v>
+        <v>142.9721325376587</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.24455104121485</v>
+        <v>129.3270728709515</v>
       </c>
       <c r="AD4" t="n">
-        <v>80187.19631473263</v>
+        <v>104493.1461960681</v>
       </c>
       <c r="AE4" t="n">
-        <v>109715.6596072028</v>
+        <v>142972.1325376587</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.707121705733462e-06</v>
+        <v>6.859145733560604e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.1015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>99244.55104121484</v>
+        <v>129327.0728709515</v>
       </c>
     </row>
   </sheetData>
@@ -2236,28 +2236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.91908426899337</v>
+        <v>104.361257188407</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.7170609948396</v>
+        <v>142.7916761788445</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.1503800858915</v>
+        <v>129.1638390137504</v>
       </c>
       <c r="AD2" t="n">
-        <v>80919.08426899338</v>
+        <v>104361.2571884069</v>
       </c>
       <c r="AE2" t="n">
-        <v>110717.0609948396</v>
+        <v>142791.6761788445</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.532048149593133e-06</v>
+        <v>6.732628882587502e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>100150.3800858915</v>
+        <v>129163.8390137504</v>
       </c>
     </row>
     <row r="3">
@@ -2342,28 +2342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.29546447088582</v>
+        <v>99.73763739029941</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.3908204073627</v>
+        <v>136.4654355913676</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.42790702114696</v>
+        <v>123.4413659490058</v>
       </c>
       <c r="AD3" t="n">
-        <v>76295.46447088582</v>
+        <v>99737.63739029941</v>
       </c>
       <c r="AE3" t="n">
-        <v>104390.8204073627</v>
+        <v>136465.4355913676</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.902116854921857e-06</v>
+        <v>7.438036948534999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.029947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>94427.90702114697</v>
+        <v>123441.3659490058</v>
       </c>
     </row>
   </sheetData>
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.14764599417659</v>
+        <v>86.9892796305375</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.50612747738126</v>
+        <v>119.0225700866192</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.86834969710964</v>
+        <v>107.6632230468096</v>
       </c>
       <c r="AD2" t="n">
-        <v>66147.64599417658</v>
+        <v>86989.27963053749</v>
       </c>
       <c r="AE2" t="n">
-        <v>90506.12747738126</v>
+        <v>119022.5700866192</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.340533383269263e-06</v>
+        <v>9.244200176040836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.04296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>81868.34969710963</v>
+        <v>107663.2230468096</v>
       </c>
     </row>
   </sheetData>
@@ -2936,28 +2936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.56158581052944</v>
+        <v>80.50517790292983</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.12654526076523</v>
+        <v>110.1507360445316</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.479380239409</v>
+        <v>99.6381043939987</v>
       </c>
       <c r="AD2" t="n">
-        <v>58561.58581052945</v>
+        <v>80505.17790292983</v>
       </c>
       <c r="AE2" t="n">
-        <v>80126.54526076523</v>
+        <v>110150.7360445316</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.238956179765519e-06</v>
+        <v>8.606546586290257e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>72479.380239409</v>
+        <v>99638.1043939987</v>
       </c>
     </row>
   </sheetData>
@@ -3233,28 +3233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.44224591387521</v>
+        <v>83.44997116184136</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.80447973368682</v>
+        <v>114.179932096482</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.51998201877697</v>
+        <v>103.2827596297644</v>
       </c>
       <c r="AD2" t="n">
-        <v>63442.24591387521</v>
+        <v>83449.97116184136</v>
       </c>
       <c r="AE2" t="n">
-        <v>86804.47973368682</v>
+        <v>114179.932096482</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.34545273029042e-06</v>
+        <v>9.676474458969068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>78519.98201877697</v>
+        <v>103282.7596297644</v>
       </c>
     </row>
   </sheetData>
@@ -3530,28 +3530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.38592923007194</v>
+        <v>107.2257307398269</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.0923071001045</v>
+        <v>146.7109752635496</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.2034974400587</v>
+        <v>132.7090856945833</v>
       </c>
       <c r="AD2" t="n">
-        <v>83385.92923007194</v>
+        <v>107225.7307398269</v>
       </c>
       <c r="AE2" t="n">
-        <v>114092.3071001045</v>
+        <v>146710.9752635496</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391464455504557e-06</v>
+        <v>6.412457775893719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.596354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103203.4974400587</v>
+        <v>132709.0856945832</v>
       </c>
     </row>
     <row r="3">
@@ -3636,28 +3636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.24127494130641</v>
+        <v>100.9104842504692</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.6849200192046</v>
+        <v>138.0701764078028</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.59849958231526</v>
+        <v>124.8929525541888</v>
       </c>
       <c r="AD3" t="n">
-        <v>77241.27494130642</v>
+        <v>100910.4842504692</v>
       </c>
       <c r="AE3" t="n">
-        <v>105684.9200192046</v>
+        <v>138070.1764078028</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.855458583597533e-06</v>
+        <v>7.289761015746245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.04296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>95598.49958231526</v>
+        <v>124892.9525541888</v>
       </c>
     </row>
   </sheetData>
@@ -3933,28 +3933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.00669401660394</v>
+        <v>81.52062064018062</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.8402942957613</v>
+        <v>111.5401095958093</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.74325568229487</v>
+        <v>100.894878083541</v>
       </c>
       <c r="AD2" t="n">
-        <v>62006.69401660393</v>
+        <v>81520.62064018063</v>
       </c>
       <c r="AE2" t="n">
-        <v>84840.2942957613</v>
+        <v>111540.1095958093</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.286198462086544e-06</v>
+        <v>9.826396070298407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>76743.25568229487</v>
+        <v>100894.878083541</v>
       </c>
     </row>
   </sheetData>
@@ -4230,28 +4230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.52115428947164</v>
+        <v>97.22648427676474</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.9631309401123</v>
+        <v>133.0295651171746</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.23191282936665</v>
+        <v>120.3334101305942</v>
       </c>
       <c r="AD2" t="n">
-        <v>74521.15428947164</v>
+        <v>97226.48427676474</v>
       </c>
       <c r="AE2" t="n">
-        <v>101963.1309401123</v>
+        <v>133029.5651171746</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.928687956683203e-06</v>
+        <v>7.700174100890098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.12109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>92231.91282936664</v>
+        <v>120333.4101305942</v>
       </c>
     </row>
     <row r="3">
@@ -4336,28 +4336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.67805814592393</v>
+        <v>95.69324843675119</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.39064019910575</v>
+        <v>130.9317241992778</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.33651594153049</v>
+        <v>118.4357842055625</v>
       </c>
       <c r="AD3" t="n">
-        <v>61678.05814592393</v>
+        <v>95693.24843675119</v>
       </c>
       <c r="AE3" t="n">
-        <v>84390.64019910575</v>
+        <v>130931.7241992778</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.07693798539388e-06</v>
+        <v>7.990742108357386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.971354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>76336.5159415305</v>
+        <v>118435.7842055625</v>
       </c>
     </row>
   </sheetData>
@@ -4633,28 +4633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.06745557650375</v>
+        <v>102.273958762492</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.1835809296839</v>
+        <v>139.9357423874016</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.85869180239189</v>
+        <v>126.5804715350336</v>
       </c>
       <c r="AD2" t="n">
-        <v>79067.45557650375</v>
+        <v>102273.958762492</v>
       </c>
       <c r="AE2" t="n">
-        <v>108183.5809296839</v>
+        <v>139935.7423874016</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.633800515625866e-06</v>
+        <v>6.986719447997554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.368489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>97858.69180239188</v>
+        <v>126580.4715350336</v>
       </c>
     </row>
     <row r="3">
@@ -4739,28 +4739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.08247757385267</v>
+        <v>98.28898075984094</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.7311582216376</v>
+        <v>134.4833196793553</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.92664066507649</v>
+        <v>121.6484203977182</v>
       </c>
       <c r="AD3" t="n">
-        <v>75082.47757385267</v>
+        <v>98288.98075984094</v>
       </c>
       <c r="AE3" t="n">
-        <v>102731.1582216376</v>
+        <v>134483.3196793553</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.964799732133664e-06</v>
+        <v>7.623132661464414e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.00390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>92926.64066507648</v>
+        <v>121648.4203977182</v>
       </c>
     </row>
   </sheetData>
@@ -5036,28 +5036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.42271329676494</v>
+        <v>124.6159387603015</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.9838572673808</v>
+        <v>170.5050250789824</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.4373277317238</v>
+        <v>154.2322647907974</v>
       </c>
       <c r="AD2" t="n">
-        <v>88422.71329676494</v>
+        <v>124615.9387603015</v>
       </c>
       <c r="AE2" t="n">
-        <v>120983.8572673808</v>
+        <v>170505.0250789824</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.135448885819313e-06</v>
+        <v>5.841103461695016e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.8828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>109437.3277317238</v>
+        <v>154232.2647907974</v>
       </c>
     </row>
     <row r="3">
@@ -5142,28 +5142,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.27940597973488</v>
+        <v>103.3798655124531</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.4735808219764</v>
+        <v>141.44889279186</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.12101451198154</v>
+        <v>127.9492089886109</v>
       </c>
       <c r="AD3" t="n">
-        <v>79279.40597973487</v>
+        <v>103379.8655124531</v>
       </c>
       <c r="AE3" t="n">
-        <v>108473.5808219764</v>
+        <v>141448.89279186</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.748497092153417e-06</v>
+        <v>6.983165772581117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.088541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>98121.01451198154</v>
+        <v>127949.2089886109</v>
       </c>
     </row>
     <row r="4">
@@ -5248,28 +5248,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.17109638556954</v>
+        <v>103.2715559182877</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.3253868569575</v>
+        <v>141.300698826841</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.98696397099238</v>
+        <v>127.8151584476218</v>
       </c>
       <c r="AD4" t="n">
-        <v>79171.09638556954</v>
+        <v>103271.5559182877</v>
       </c>
       <c r="AE4" t="n">
-        <v>108325.3868569575</v>
+        <v>141300.698826841</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.75082637417779e-06</v>
+        <v>6.987505048324812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.08203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>97986.96397099238</v>
+        <v>127815.1584476218</v>
       </c>
     </row>
   </sheetData>
@@ -5545,28 +5545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.69835040728106</v>
+        <v>92.88911916546451</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.68191673255455</v>
+        <v>127.0949908208527</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.88630924090883</v>
+        <v>114.9652232758841</v>
       </c>
       <c r="AD2" t="n">
-        <v>59698.35040728106</v>
+        <v>92889.11916546451</v>
       </c>
       <c r="AE2" t="n">
-        <v>81681.91673255456</v>
+        <v>127094.9908208527</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.166686314391953e-06</v>
+        <v>8.352111696164866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.977864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73886.30924090883</v>
+        <v>114965.2232758841</v>
       </c>
     </row>
     <row r="3">
@@ -5651,28 +5651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.56413232815366</v>
+        <v>81.80509930637145</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.49827363540879</v>
+        <v>111.9293458572044</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.72019278320988</v>
+        <v>101.2469661824451</v>
       </c>
       <c r="AD3" t="n">
-        <v>59564.13232815366</v>
+        <v>81805.09930637144</v>
       </c>
       <c r="AE3" t="n">
-        <v>81498.2736354088</v>
+        <v>111929.3458572044</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.19817267307453e-06</v>
+        <v>8.41522601886155e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.9453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>73720.19278320989</v>
+        <v>101246.9661824451</v>
       </c>
     </row>
   </sheetData>
@@ -5948,28 +5948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.36455972038378</v>
+        <v>88.56980638810701</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.17116252402171</v>
+        <v>121.1851165242441</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.37447613579062</v>
+        <v>109.6193790875812</v>
       </c>
       <c r="AD2" t="n">
-        <v>67364.55972038378</v>
+        <v>88569.80638810701</v>
       </c>
       <c r="AE2" t="n">
-        <v>92171.16252402171</v>
+        <v>121185.1165242441</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.307587130854098e-06</v>
+        <v>9.011741665272958e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>83374.47613579061</v>
+        <v>109619.3790875812</v>
       </c>
     </row>
   </sheetData>
@@ -9738,28 +9738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.80134187667814</v>
+        <v>85.24686093644527</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.66405478907501</v>
+        <v>116.6385159592759</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.20208184080951</v>
+        <v>105.5066996993381</v>
       </c>
       <c r="AD2" t="n">
-        <v>64801.34187667814</v>
+        <v>85246.86093644527</v>
       </c>
       <c r="AE2" t="n">
-        <v>88664.05478907502</v>
+        <v>116638.5159592759</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.361346685932148e-06</v>
+        <v>9.480938657559536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.095052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>80202.08184080951</v>
+        <v>105506.6996993381</v>
       </c>
     </row>
   </sheetData>
@@ -10035,28 +10035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.76490461427579</v>
+        <v>89.2166957828255</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.14122325161479</v>
+        <v>122.0702191328435</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.20634159393997</v>
+        <v>110.4200087454655</v>
       </c>
       <c r="AD2" t="n">
-        <v>60764.90461427579</v>
+        <v>89216.6957828255</v>
       </c>
       <c r="AE2" t="n">
-        <v>83141.22325161479</v>
+        <v>122070.2191328435</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.085866552181612e-06</v>
+        <v>9.71834376372099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>75206.34159393997</v>
+        <v>110420.0087454655</v>
       </c>
     </row>
   </sheetData>
@@ -10332,28 +10332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.74951703912362</v>
+        <v>99.7107782954099</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.0120751626109</v>
+        <v>136.4286857928002</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.98987009449102</v>
+        <v>123.408123499635</v>
       </c>
       <c r="AD2" t="n">
-        <v>76749.51703912362</v>
+        <v>99710.77829540989</v>
       </c>
       <c r="AE2" t="n">
-        <v>105012.0751626109</v>
+        <v>136428.6857928002</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.781896510938389e-06</v>
+        <v>7.339065904829632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.23828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>94989.87009449102</v>
+        <v>123408.123499635</v>
       </c>
     </row>
     <row r="3">
@@ -10438,28 +10438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.68486692678547</v>
+        <v>97.08395412110248</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.76820039034844</v>
+        <v>132.8345490702109</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.58260372153929</v>
+        <v>120.1570061414459</v>
       </c>
       <c r="AD3" t="n">
-        <v>62684.86692678547</v>
+        <v>97083.95412110248</v>
       </c>
       <c r="AE3" t="n">
-        <v>85768.20039034844</v>
+        <v>132834.5490702109</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.012725732416349e-06</v>
+        <v>7.787008058795903e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.997395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>77582.60372153929</v>
+        <v>120157.0061414459</v>
       </c>
     </row>
   </sheetData>
@@ -10735,28 +10735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.22228412150767</v>
+        <v>121.097435379309</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.6048888768257</v>
+        <v>165.690853527697</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.4762819384411</v>
+        <v>149.8775510156329</v>
       </c>
       <c r="AD2" t="n">
-        <v>85222.28412150768</v>
+        <v>121097.435379309</v>
       </c>
       <c r="AE2" t="n">
-        <v>116604.8888768257</v>
+        <v>165690.853527697</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.298913519035301e-06</v>
+        <v>6.190055692066767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.680989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>105476.2819384411</v>
+        <v>149877.5510156329</v>
       </c>
     </row>
     <row r="3">
@@ -10841,28 +10841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.04642462487696</v>
+        <v>101.934834687105</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.7865613369623</v>
+        <v>139.471737866359</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.59500179886992</v>
+        <v>126.1607509542447</v>
       </c>
       <c r="AD3" t="n">
-        <v>78046.42462487696</v>
+        <v>101934.834687105</v>
       </c>
       <c r="AE3" t="n">
-        <v>106786.5613369623</v>
+        <v>139471.737866359</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.820078038011012e-06</v>
+        <v>7.167964745630627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.04296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>96595.00179886991</v>
+        <v>126160.7509542448</v>
       </c>
     </row>
     <row r="4">
@@ -10947,28 +10947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.14247281715346</v>
+        <v>102.0308828793815</v>
       </c>
       <c r="AB4" t="n">
-        <v>106.9179787109822</v>
+        <v>139.6031552403789</v>
       </c>
       <c r="AC4" t="n">
-        <v>96.71387688315879</v>
+        <v>126.2796260385336</v>
       </c>
       <c r="AD4" t="n">
-        <v>78142.47281715347</v>
+        <v>102030.8828793815</v>
       </c>
       <c r="AE4" t="n">
-        <v>106917.9787109822</v>
+        <v>139603.1552403789</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.819745904759661e-06</v>
+        <v>7.16734153337872e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.04296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>96713.87688315879</v>
+        <v>126279.6260385336</v>
       </c>
     </row>
   </sheetData>
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.85107134118005</v>
+        <v>96.16105803028765</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.20507330385841</v>
+        <v>131.5718019234567</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.21427332541209</v>
+        <v>119.0147738101008</v>
       </c>
       <c r="AD2" t="n">
-        <v>68851.07134118004</v>
+        <v>96161.05803028765</v>
       </c>
       <c r="AE2" t="n">
-        <v>94205.07330385841</v>
+        <v>131571.8019234567</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.638747571074198e-06</v>
+        <v>9.100231532407551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.455729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>85214.2733254121</v>
+        <v>119014.7738101008</v>
       </c>
     </row>
   </sheetData>
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.7247508447418</v>
+        <v>89.99591005862688</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.98155074202204</v>
+        <v>123.136374481502</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.44366239052439</v>
+        <v>111.3844117240068</v>
       </c>
       <c r="AD2" t="n">
-        <v>57724.7508447418</v>
+        <v>89995.91005862688</v>
       </c>
       <c r="AE2" t="n">
-        <v>78981.55074202204</v>
+        <v>123136.374481502</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.266173169313254e-06</v>
+        <v>8.7852598370386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>71443.66239052439</v>
+        <v>111384.4117240068</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.50666494483677</v>
+        <v>94.944028256363</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.20681774578675</v>
+        <v>129.9066080952095</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.73865829779677</v>
+        <v>117.5085037437068</v>
       </c>
       <c r="AD2" t="n">
-        <v>72506.66494483677</v>
+        <v>94944.028256363</v>
       </c>
       <c r="AE2" t="n">
-        <v>99206.81774578676</v>
+        <v>129906.6080952096</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.068469425453851e-06</v>
+        <v>8.060386984983377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.0234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>89738.65829779678</v>
+        <v>117508.5037437068</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.63700501256797</v>
+        <v>94.25024528974492</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.96622537402605</v>
+        <v>128.9573436327389</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.04804526817719</v>
+        <v>116.649835749233</v>
       </c>
       <c r="AD3" t="n">
-        <v>60637.00501256797</v>
+        <v>94250.24528974493</v>
       </c>
       <c r="AE3" t="n">
-        <v>82966.22537402605</v>
+        <v>128957.3436327389</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.117875071532495e-06</v>
+        <v>8.158268666026752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.977864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>75048.04526817719</v>
+        <v>116649.835749233</v>
       </c>
     </row>
   </sheetData>
